--- a/data/fechasEleccionesMexicoDesde1994.xlsx
+++ b/data/fechasEleccionesMexicoDesde1994.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,9 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="195">
-  <si>
-    <t xml:space="preserve">Ocupantes podrán contender en</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="195">
+  <si>
+    <t xml:space="preserve">Ocupantes podran contender en</t>
   </si>
   <si>
     <t xml:space="preserve">Periodos consecutivos</t>
@@ -289,135 +289,138 @@
     <t xml:space="preserve">18oct</t>
   </si>
   <si>
-    <t xml:space="preserve">C:30, CE:12.3</t>
+    <t xml:space="preserve">C:30 CE:12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elec 2020 pospuesta covid19 7jun→18oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:30 CE:14.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10abr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elec. extraordinarias: 7dic2003 (anulada)--10abr2005 (falleció el gobernador)--17ene15 (anulada tepjf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:28 CE:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.B.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.A.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4dic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no consecutiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9nov</t>
   </si>
   <si>
     <t xml:space="preserve">Elec 2020 pospuesta covid19 fecha por confirmar</t>
   </si>
   <si>
-    <t xml:space="preserve">C:30, CE:14.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10abr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17ene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elec. extraordinarias: 7dic2003 (anulada); 10abr2005 (falleció el gobernador); 17ene15 (anulada tepjf)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19jul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:28, CE:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9jul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.B.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.A.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4dic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30ene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no consecutiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9nov</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
@@ -487,7 +490,7 @@
     <t xml:space="preserve">19oct</t>
   </si>
   <si>
-    <t xml:space="preserve">Hubo segundas vueltas: 17ago1997, 13ago2000 y 14dic2003</t>
+    <t xml:space="preserve">Hubo segundas vueltas: 17ago1997 13ago2000 y 14dic2003</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
@@ -499,16 +502,13 @@
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">30, 6transit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131, 7transit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* 7transit dice 2021 para reelección, pero hubo reelectos en 2018, quizás fallo SCJN</t>
+    <t xml:space="preserve">30--6transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131--7transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* 7transit dice 2021 para reelección pero hubo reelectos en 2018 quizás fallo SCJN</t>
   </si>
   <si>
     <t xml:space="preserve">Tabasco</t>
@@ -562,7 +562,7 @@
     <t xml:space="preserve">Preparado por Eric Magar Meurs --- si detecta un error u omisión, por favor repórtelo a  emagar@itam.mx</t>
   </si>
   <si>
-    <t xml:space="preserve">Para citar este documento: Eric Magar, “Calendarios electorales e instituciones de reelección consecutiva de México desde 1994”, base de datos disponible en https://github.com/emagar/calendarioReeleccion (versión del 8/2/2019)</t>
+    <t xml:space="preserve">Para citar este documento: Eric Magar, “Calendarios electorales e instituciones de reelección consecutiva de México desde 1994”, base de datos disponible en https://github.com/emagar/calendarioReeleccion (versión del 13/3/2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Fuentes:</t>
@@ -619,7 +619,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -785,44 +785,44 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S62" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
-      <selection pane="bottomRight" activeCell="AH78" activeCellId="0" sqref="AH78"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="38" min="7" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="48" min="40" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="72.6275510204082"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="235" min="51" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="7" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="40" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="72.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="41.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="235" min="51" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,7 +1487,6 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
-        <f aca="false">+A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
@@ -1616,7 +1615,6 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
-        <f aca="false">+A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
@@ -1745,7 +1743,6 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <f aca="false">+A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -1874,7 +1871,6 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <f aca="false">+A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -2003,7 +1999,6 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <f aca="false">+A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -2132,7 +2127,6 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
-        <f aca="false">+A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="n">
@@ -2261,7 +2255,6 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
-        <f aca="false">+A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="n">
@@ -2390,7 +2383,6 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
-        <f aca="false">+A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="n">
@@ -2519,11 +2511,9 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <f aca="false">+A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
-        <f aca="false">+B12+1</f>
         <v>4</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -2649,11 +2639,9 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <f aca="false">+A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="0" t="n">
-        <f aca="false">+B13+1</f>
         <v>4</v>
       </c>
       <c r="C16" s="13"/>
@@ -2779,11 +2767,9 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <f aca="false">+A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
-        <f aca="false">+B14+1</f>
         <v>4</v>
       </c>
       <c r="C17" s="13"/>
@@ -2909,11 +2895,9 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
-        <f aca="false">+A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="n">
-        <f aca="false">+B15+1</f>
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3039,11 +3023,9 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
-        <f aca="false">+A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="n">
-        <f aca="false">+B16+1</f>
         <v>5</v>
       </c>
       <c r="C19" s="9"/>
@@ -3171,11 +3153,9 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
-        <f aca="false">+A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="8" t="n">
-        <f aca="false">+B17+1</f>
         <v>5</v>
       </c>
       <c r="C20" s="9"/>
@@ -3301,11 +3281,9 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <f aca="false">+A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
-        <f aca="false">+B18+1</f>
         <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3433,11 +3411,9 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <f aca="false">+A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
-        <f aca="false">+B19+1</f>
         <v>6</v>
       </c>
       <c r="C22" s="13"/>
@@ -3563,11 +3539,9 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <f aca="false">+A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
-        <f aca="false">+B20+1</f>
         <v>6</v>
       </c>
       <c r="C23" s="13"/>
@@ -3693,11 +3667,9 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
-        <f aca="false">+A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="8" t="n">
-        <f aca="false">+B21+1</f>
         <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3823,11 +3795,9 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
-        <f aca="false">+A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="8" t="n">
-        <f aca="false">+B22+1</f>
         <v>7</v>
       </c>
       <c r="C25" s="9"/>
@@ -3953,11 +3923,9 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
-        <f aca="false">+A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="8" t="n">
-        <f aca="false">+B23+1</f>
         <v>7</v>
       </c>
       <c r="C26" s="9"/>
@@ -4083,11 +4051,9 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <f aca="false">+A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="0" t="n">
-        <f aca="false">+B24+1</f>
         <v>8</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -4213,11 +4179,9 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <f aca="false">+A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
-        <f aca="false">+B25+1</f>
         <v>8</v>
       </c>
       <c r="C28" s="13"/>
@@ -4343,11 +4307,9 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <f aca="false">+A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
-        <f aca="false">+B26+1</f>
         <v>8</v>
       </c>
       <c r="C29" s="13"/>
@@ -4473,11 +4435,9 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
-        <f aca="false">+A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="8" t="n">
-        <f aca="false">+B27+1</f>
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4603,11 +4563,9 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
-        <f aca="false">+A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="8" t="n">
-        <f aca="false">+B28+1</f>
         <v>9</v>
       </c>
       <c r="C31" s="9"/>
@@ -4733,11 +4691,9 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
-        <f aca="false">+A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="8" t="n">
-        <f aca="false">+B29+1</f>
         <v>9</v>
       </c>
       <c r="C32" s="9"/>
@@ -4863,11 +4819,9 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <f aca="false">+A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
-        <f aca="false">+B30+1</f>
         <v>10</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -4993,11 +4947,9 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <f aca="false">+A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
-        <f aca="false">+B31+1</f>
         <v>10</v>
       </c>
       <c r="C34" s="13"/>
@@ -5123,11 +5075,9 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <f aca="false">+A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
-        <f aca="false">+B32+1</f>
         <v>10</v>
       </c>
       <c r="C35" s="13"/>
@@ -5253,11 +5203,9 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
-        <f aca="false">+A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="8" t="n">
-        <f aca="false">+B33+1</f>
         <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -5383,11 +5331,9 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
-        <f aca="false">+A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="8" t="n">
-        <f aca="false">+B34+1</f>
         <v>11</v>
       </c>
       <c r="C37" s="9"/>
@@ -5513,11 +5459,9 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
-        <f aca="false">+A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="8" t="n">
-        <f aca="false">+B35+1</f>
         <v>11</v>
       </c>
       <c r="C38" s="9"/>
@@ -5643,11 +5587,9 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <f aca="false">+A38+1</f>
         <v>37</v>
       </c>
       <c r="B39" s="0" t="n">
-        <f aca="false">+B36+1</f>
         <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -5773,11 +5715,9 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <f aca="false">+A39+1</f>
         <v>38</v>
       </c>
       <c r="B40" s="0" t="n">
-        <f aca="false">+B37+1</f>
         <v>12</v>
       </c>
       <c r="C40" s="13"/>
@@ -5903,11 +5843,9 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <f aca="false">+A40+1</f>
         <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
-        <f aca="false">+B38+1</f>
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
@@ -6033,11 +5971,9 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
-        <f aca="false">+A41+1</f>
         <v>40</v>
       </c>
       <c r="B42" s="8" t="n">
-        <f aca="false">+B39+1</f>
         <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -6163,11 +6099,9 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
-        <f aca="false">+A42+1</f>
         <v>41</v>
       </c>
       <c r="B43" s="8" t="n">
-        <f aca="false">+B40+1</f>
         <v>13</v>
       </c>
       <c r="C43" s="9"/>
@@ -6293,11 +6227,9 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
-        <f aca="false">+A43+1</f>
         <v>42</v>
       </c>
       <c r="B44" s="8" t="n">
-        <f aca="false">+B41+1</f>
         <v>13</v>
       </c>
       <c r="C44" s="9"/>
@@ -6410,7 +6342,7 @@
         <v>125</v>
       </c>
       <c r="AN44" s="12" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AO44" s="11"/>
       <c r="AP44" s="11"/>
@@ -6425,15 +6357,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <f aca="false">+A44+1</f>
         <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
-        <f aca="false">+B42+1</f>
         <v>14</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>58</v>
@@ -6448,7 +6378,7 @@
         <v>46</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>46</v>
@@ -6463,7 +6393,7 @@
         <v>46</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>46</v>
@@ -6555,11 +6485,9 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <f aca="false">+A45+1</f>
         <v>44</v>
       </c>
       <c r="B46" s="0" t="n">
-        <f aca="false">+B43+1</f>
         <v>14</v>
       </c>
       <c r="C46" s="13"/>
@@ -6576,7 +6504,7 @@
         <v>46</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>46</v>
@@ -6591,7 +6519,7 @@
         <v>46</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>46</v>
@@ -6685,11 +6613,9 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <f aca="false">+A46+1</f>
         <v>45</v>
       </c>
       <c r="B47" s="0" t="n">
-        <f aca="false">+B44+1</f>
         <v>14</v>
       </c>
       <c r="C47" s="13"/>
@@ -6706,7 +6632,7 @@
         <v>46</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>46</v>
@@ -6721,7 +6647,7 @@
         <v>46</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>46</v>
@@ -6799,7 +6725,7 @@
         <v>46</v>
       </c>
       <c r="AM47" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN47" s="14"/>
       <c r="AO47" s="6"/>
@@ -6815,15 +6741,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
-        <f aca="false">+A47+1</f>
         <v>46</v>
       </c>
       <c r="B48" s="8" t="n">
-        <f aca="false">+B45+1</f>
         <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>58</v>
@@ -6945,11 +6869,9 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
-        <f aca="false">+A48+1</f>
         <v>47</v>
       </c>
       <c r="B49" s="8" t="n">
-        <f aca="false">+B46+1</f>
         <v>15</v>
       </c>
       <c r="C49" s="9"/>
@@ -6990,7 +6912,7 @@
         <v>46</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>46</v>
@@ -6999,7 +6921,7 @@
         <v>46</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T49" s="11" t="s">
         <v>46</v>
@@ -7075,11 +6997,9 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
-        <f aca="false">+A49+1</f>
         <v>48</v>
       </c>
       <c r="B50" s="8" t="n">
-        <f aca="false">+B47+1</f>
         <v>15</v>
       </c>
       <c r="C50" s="9"/>
@@ -7120,7 +7040,7 @@
         <v>46</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>46</v>
@@ -7129,7 +7049,7 @@
         <v>46</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T50" s="11" t="s">
         <v>46</v>
@@ -7205,15 +7125,13 @@
     </row>
     <row r="51" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <f aca="false">+A50+1</f>
         <v>49</v>
       </c>
       <c r="B51" s="0" t="n">
-        <f aca="false">+B48+1</f>
         <v>16</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>58</v>
@@ -7228,7 +7146,7 @@
         <v>46</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>46</v>
@@ -7246,7 +7164,7 @@
         <v>46</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O51" s="6" t="s">
         <v>46</v>
@@ -7264,7 +7182,7 @@
         <v>46</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U51" s="6" t="s">
         <v>46</v>
@@ -7335,11 +7253,9 @@
     </row>
     <row r="52" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <f aca="false">+A51+1</f>
         <v>50</v>
       </c>
       <c r="B52" s="0" t="n">
-        <f aca="false">+B49+1</f>
         <v>16</v>
       </c>
       <c r="C52" s="13"/>
@@ -7356,7 +7272,7 @@
         <v>46</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>46</v>
@@ -7365,16 +7281,16 @@
         <v>46</v>
       </c>
       <c r="K52" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>46</v>
@@ -7392,7 +7308,7 @@
         <v>46</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U52" s="6" t="s">
         <v>46</v>
@@ -7465,11 +7381,9 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <f aca="false">+A52+1</f>
         <v>51</v>
       </c>
       <c r="B53" s="0" t="n">
-        <f aca="false">+B50+1</f>
         <v>16</v>
       </c>
       <c r="C53" s="13"/>
@@ -7486,7 +7400,7 @@
         <v>46</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>46</v>
@@ -7495,16 +7409,16 @@
         <v>46</v>
       </c>
       <c r="K53" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>46</v>
@@ -7522,7 +7436,7 @@
         <v>46</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U53" s="6" t="s">
         <v>46</v>
@@ -7595,15 +7509,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
-        <f aca="false">+A53+1</f>
         <v>52</v>
       </c>
       <c r="B54" s="8" t="n">
-        <f aca="false">+B51+1</f>
         <v>17</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>58</v>
@@ -7615,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>46</v>
@@ -7725,11 +7637,9 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
-        <f aca="false">+A54+1</f>
         <v>53</v>
       </c>
       <c r="B55" s="8" t="n">
-        <f aca="false">+B52+1</f>
         <v>17</v>
       </c>
       <c r="C55" s="9"/>
@@ -7743,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>46</v>
@@ -7752,7 +7662,7 @@
         <v>46</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>46</v>
@@ -7855,11 +7765,9 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
-        <f aca="false">+A55+1</f>
         <v>54</v>
       </c>
       <c r="B56" s="8" t="n">
-        <f aca="false">+B53+1</f>
         <v>17</v>
       </c>
       <c r="C56" s="9"/>
@@ -7873,7 +7781,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>46</v>
@@ -7882,7 +7790,7 @@
         <v>46</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>46</v>
@@ -7985,15 +7893,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <f aca="false">+A56+1</f>
         <v>55</v>
       </c>
       <c r="B57" s="0" t="n">
-        <f aca="false">+B54+1</f>
         <v>18</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>58</v>
@@ -8115,11 +8021,9 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <f aca="false">+A57+1</f>
         <v>56</v>
       </c>
       <c r="B58" s="0" t="n">
-        <f aca="false">+B55+1</f>
         <v>18</v>
       </c>
       <c r="C58" s="13"/>
@@ -8245,11 +8149,9 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <f aca="false">+A58+1</f>
         <v>57</v>
       </c>
       <c r="B59" s="0" t="n">
-        <f aca="false">+B56+1</f>
         <v>18</v>
       </c>
       <c r="C59" s="13"/>
@@ -8375,15 +8277,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
-        <f aca="false">+A59+1</f>
         <v>58</v>
       </c>
       <c r="B60" s="8" t="n">
-        <f aca="false">+B57+1</f>
         <v>19</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>58</v>
@@ -8505,11 +8405,9 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
-        <f aca="false">+A60+1</f>
         <v>59</v>
       </c>
       <c r="B61" s="8" t="n">
-        <f aca="false">+B58+1</f>
         <v>19</v>
       </c>
       <c r="C61" s="9"/>
@@ -8635,11 +8533,9 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
-        <f aca="false">+A61+1</f>
         <v>60</v>
       </c>
       <c r="B62" s="8" t="n">
-        <f aca="false">+B59+1</f>
         <v>19</v>
       </c>
       <c r="C62" s="9"/>
@@ -8662,7 +8558,7 @@
         <v>46</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>46</v>
@@ -8765,15 +8661,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <f aca="false">+A62+1</f>
         <v>61</v>
       </c>
       <c r="B63" s="0" t="n">
-        <f aca="false">+B60+1</f>
         <v>20</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>58</v>
@@ -8895,11 +8789,9 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <f aca="false">+A63+1</f>
         <v>62</v>
       </c>
       <c r="B64" s="0" t="n">
-        <f aca="false">+B61+1</f>
         <v>20</v>
       </c>
       <c r="C64" s="13"/>
@@ -9025,11 +8917,9 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <f aca="false">+A64+1</f>
         <v>63</v>
       </c>
       <c r="B65" s="0" t="n">
-        <f aca="false">+B62+1</f>
         <v>20</v>
       </c>
       <c r="C65" s="13"/>
@@ -9046,7 +8936,7 @@
         <v>46</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>46</v>
@@ -9155,15 +9045,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
-        <f aca="false">+A65+1</f>
         <v>64</v>
       </c>
       <c r="B66" s="8" t="n">
-        <f aca="false">+B63+1</f>
         <v>21</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>58</v>
@@ -9187,7 +9075,7 @@
         <v>46</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>46</v>
@@ -9285,11 +9173,9 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
-        <f aca="false">+A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="8" t="n">
-        <f aca="false">+B64+1</f>
         <v>21</v>
       </c>
       <c r="C67" s="9"/>
@@ -9306,7 +9192,7 @@
         <v>46</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>46</v>
@@ -9315,16 +9201,16 @@
         <v>46</v>
       </c>
       <c r="K67" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>46</v>
@@ -9342,7 +9228,7 @@
         <v>46</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>46</v>
@@ -9415,11 +9301,9 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
-        <f aca="false">+A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="8" t="n">
-        <f aca="false">+B65+1</f>
         <v>21</v>
       </c>
       <c r="C68" s="9"/>
@@ -9436,7 +9320,7 @@
         <v>46</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>46</v>
@@ -9445,16 +9329,16 @@
         <v>46</v>
       </c>
       <c r="K68" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="O68" s="11" t="s">
         <v>46</v>
@@ -9472,7 +9356,7 @@
         <v>46</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U68" s="11" t="s">
         <v>46</v>
@@ -9529,7 +9413,7 @@
         <v>46</v>
       </c>
       <c r="AM68" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN68" s="12"/>
       <c r="AO68" s="11"/>
@@ -9545,15 +9429,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <f aca="false">+A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="0" t="n">
-        <f aca="false">+B66+1</f>
         <v>22</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>58</v>
@@ -9675,11 +9557,9 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <f aca="false">+A69+1</f>
         <v>68</v>
       </c>
       <c r="B70" s="0" t="n">
-        <f aca="false">+B67+1</f>
         <v>22</v>
       </c>
       <c r="C70" s="13"/>
@@ -9805,11 +9685,9 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <f aca="false">+A70+1</f>
         <v>69</v>
       </c>
       <c r="B71" s="0" t="n">
-        <f aca="false">+B68+1</f>
         <v>22</v>
       </c>
       <c r="C71" s="13"/>
@@ -9935,15 +9813,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
-        <f aca="false">+A71+1</f>
         <v>70</v>
       </c>
       <c r="B72" s="8" t="n">
-        <f aca="false">+B69+1</f>
         <v>23</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>58</v>
@@ -10065,11 +9941,9 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="n">
-        <f aca="false">+A72+1</f>
         <v>71</v>
       </c>
       <c r="B73" s="8" t="n">
-        <f aca="false">+B70+1</f>
         <v>23</v>
       </c>
       <c r="C73" s="9"/>
@@ -10195,11 +10069,9 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
-        <f aca="false">+A73+1</f>
         <v>72</v>
       </c>
       <c r="B74" s="8" t="n">
-        <f aca="false">+B71+1</f>
         <v>23</v>
       </c>
       <c r="C74" s="9"/>
@@ -10325,15 +10197,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <f aca="false">+A74+1</f>
         <v>73</v>
       </c>
       <c r="B75" s="0" t="n">
-        <f aca="false">+B72+1</f>
         <v>24</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>58</v>
@@ -10455,11 +10325,9 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <f aca="false">+A75+1</f>
         <v>74</v>
       </c>
       <c r="B76" s="0" t="n">
-        <f aca="false">+B73+1</f>
         <v>24</v>
       </c>
       <c r="C76" s="13"/>
@@ -10585,11 +10453,9 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <f aca="false">+A76+1</f>
         <v>75</v>
       </c>
       <c r="B77" s="0" t="n">
-        <f aca="false">+B74+1</f>
         <v>24</v>
       </c>
       <c r="C77" s="13"/>
@@ -10630,7 +10496,7 @@
         <v>46</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q77" s="6" t="s">
         <v>46</v>
@@ -10702,7 +10568,7 @@
         <v>114</v>
       </c>
       <c r="AN77" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO77" s="6"/>
       <c r="AP77" s="6"/>
@@ -10717,15 +10583,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
-        <f aca="false">+A77+1</f>
         <v>76</v>
       </c>
       <c r="B78" s="8" t="n">
-        <f aca="false">+B75+1</f>
         <v>25</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>58</v>
@@ -10749,7 +10613,7 @@
         <v>46</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L78" s="11" t="s">
         <v>46</v>
@@ -10847,11 +10711,9 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="n">
-        <f aca="false">+A78+1</f>
         <v>77</v>
       </c>
       <c r="B79" s="8" t="n">
-        <f aca="false">+B76+1</f>
         <v>25</v>
       </c>
       <c r="C79" s="9"/>
@@ -10868,7 +10730,7 @@
         <v>46</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>46</v>
@@ -10877,16 +10739,16 @@
         <v>46</v>
       </c>
       <c r="K79" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N79" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>46</v>
@@ -10904,7 +10766,7 @@
         <v>46</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U79" s="11" t="s">
         <v>46</v>
@@ -10977,11 +10839,9 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="n">
-        <f aca="false">+A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" s="8" t="n">
-        <f aca="false">+B77+1</f>
         <v>25</v>
       </c>
       <c r="C80" s="9"/>
@@ -10998,7 +10858,7 @@
         <v>46</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>46</v>
@@ -11007,16 +10867,16 @@
         <v>46</v>
       </c>
       <c r="K80" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N80" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="O80" s="11" t="s">
         <v>46</v>
@@ -11034,7 +10894,7 @@
         <v>46</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U80" s="11" t="s">
         <v>46</v>
@@ -11107,15 +10967,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <f aca="false">+A80+1</f>
         <v>79</v>
       </c>
       <c r="B81" s="0" t="n">
-        <f aca="false">+B78+1</f>
         <v>26</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>58</v>
@@ -11237,11 +11095,9 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <f aca="false">+A81+1</f>
         <v>80</v>
       </c>
       <c r="B82" s="0" t="n">
-        <f aca="false">+B79+1</f>
         <v>26</v>
       </c>
       <c r="C82" s="13"/>
@@ -11249,7 +11105,7 @@
         <v>63</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F82" s="6" t="n">
         <v>4</v>
@@ -11351,7 +11207,7 @@
         <v>46</v>
       </c>
       <c r="AM82" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN82" s="14"/>
       <c r="AO82" s="6"/>
@@ -11367,19 +11223,17 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <f aca="false">+A82+1</f>
         <v>81</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">+B80+1</f>
         <v>26</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>158</v>
+      <c r="E83" s="6" t="n">
+        <v>2018</v>
       </c>
       <c r="F83" s="6" t="n">
         <v>2</v>
@@ -11499,11 +11353,9 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="n">
-        <f aca="false">+A83+1</f>
         <v>82</v>
       </c>
       <c r="B84" s="8" t="n">
-        <f aca="false">+B81+1</f>
         <v>27</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -11629,11 +11481,9 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="n">
-        <f aca="false">+A84+1</f>
         <v>83</v>
       </c>
       <c r="B85" s="8" t="n">
-        <f aca="false">+B82+1</f>
         <v>27</v>
       </c>
       <c r="C85" s="9"/>
@@ -11656,7 +11506,7 @@
         <v>46</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>46</v>
@@ -11674,7 +11524,7 @@
         <v>46</v>
       </c>
       <c r="P85" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>46</v>
@@ -11759,11 +11609,9 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="n">
-        <f aca="false">+A85+1</f>
         <v>84</v>
       </c>
       <c r="B86" s="8" t="n">
-        <f aca="false">+B83+1</f>
         <v>27</v>
       </c>
       <c r="C86" s="9"/>
@@ -11786,7 +11634,7 @@
         <v>46</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K86" s="11" t="s">
         <v>46</v>
@@ -11804,7 +11652,7 @@
         <v>46</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q86" s="11" t="s">
         <v>46</v>
@@ -11889,11 +11737,9 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <f aca="false">+A86+1</f>
         <v>85</v>
       </c>
       <c r="B87" s="0" t="n">
-        <f aca="false">+B84+1</f>
         <v>28</v>
       </c>
       <c r="C87" s="13" t="s">
@@ -12019,11 +11865,9 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <f aca="false">+A87+1</f>
         <v>86</v>
       </c>
       <c r="B88" s="0" t="n">
-        <f aca="false">+B85+1</f>
         <v>28</v>
       </c>
       <c r="C88" s="13"/>
@@ -12040,7 +11884,7 @@
         <v>46</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>46</v>
@@ -12076,7 +11920,7 @@
         <v>46</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U88" s="6" t="s">
         <v>46</v>
@@ -12149,11 +11993,9 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <f aca="false">+A88+1</f>
         <v>87</v>
       </c>
       <c r="B89" s="0" t="n">
-        <f aca="false">+B86+1</f>
         <v>28</v>
       </c>
       <c r="C89" s="13"/>
@@ -12170,7 +12012,7 @@
         <v>46</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>46</v>
@@ -12206,7 +12048,7 @@
         <v>46</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U89" s="6" t="s">
         <v>46</v>
@@ -12279,11 +12121,9 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="n">
-        <f aca="false">+A89+1</f>
         <v>88</v>
       </c>
       <c r="B90" s="8" t="n">
-        <f aca="false">+B87+1</f>
         <v>29</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -12311,7 +12151,7 @@
         <v>46</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L90" s="11" t="s">
         <v>46</v>
@@ -12409,11 +12249,9 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="n">
-        <f aca="false">+A90+1</f>
         <v>89</v>
       </c>
       <c r="B91" s="8" t="n">
-        <f aca="false">+B88+1</f>
         <v>29</v>
       </c>
       <c r="C91" s="9"/>
@@ -12430,7 +12268,7 @@
         <v>46</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>46</v>
@@ -12439,16 +12277,16 @@
         <v>46</v>
       </c>
       <c r="K91" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N91" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L91" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N91" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="O91" s="11" t="s">
         <v>46</v>
@@ -12466,7 +12304,7 @@
         <v>46</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U91" s="11" t="s">
         <v>46</v>
@@ -12539,11 +12377,9 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="n">
-        <f aca="false">+A91+1</f>
         <v>90</v>
       </c>
       <c r="B92" s="8" t="n">
-        <f aca="false">+B89+1</f>
         <v>29</v>
       </c>
       <c r="C92" s="9"/>
@@ -12569,16 +12405,16 @@
         <v>46</v>
       </c>
       <c r="K92" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N92" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L92" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M92" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N92" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="O92" s="11" t="s">
         <v>46</v>
@@ -12596,7 +12432,7 @@
         <v>46</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U92" s="11" t="s">
         <v>46</v>
@@ -12669,11 +12505,9 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <f aca="false">+A92+1</f>
         <v>91</v>
       </c>
       <c r="B93" s="0" t="n">
-        <f aca="false">+B90+1</f>
         <v>30</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -12799,11 +12633,9 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <f aca="false">+A93+1</f>
         <v>92</v>
       </c>
       <c r="B94" s="0" t="n">
-        <f aca="false">+B91+1</f>
         <v>30</v>
       </c>
       <c r="C94" s="13"/>
@@ -12929,11 +12761,9 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <f aca="false">+A94+1</f>
         <v>93</v>
       </c>
       <c r="B95" s="0" t="n">
-        <f aca="false">+B92+1</f>
         <v>30</v>
       </c>
       <c r="C95" s="13"/>
@@ -12956,7 +12786,7 @@
         <v>46</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>46</v>
@@ -13061,11 +12891,9 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="n">
-        <f aca="false">+A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="8" t="n">
-        <f aca="false">+B93+1</f>
         <v>31</v>
       </c>
       <c r="C96" s="9" t="s">
@@ -13191,11 +13019,9 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="n">
-        <f aca="false">+A96+1</f>
         <v>95</v>
       </c>
       <c r="B97" s="8" t="n">
-        <f aca="false">+B94+1</f>
         <v>31</v>
       </c>
       <c r="C97" s="9"/>
@@ -13321,11 +13147,9 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="n">
-        <f aca="false">+A97+1</f>
         <v>96</v>
       </c>
       <c r="B98" s="8" t="n">
-        <f aca="false">+B95+1</f>
         <v>31</v>
       </c>
       <c r="C98" s="9"/>
@@ -13451,11 +13275,9 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <f aca="false">+A98+1</f>
         <v>97</v>
       </c>
       <c r="B99" s="0" t="n">
-        <f aca="false">+B96+1</f>
         <v>32</v>
       </c>
       <c r="C99" s="13" t="s">
@@ -13581,11 +13403,9 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <f aca="false">+A99+1</f>
         <v>98</v>
       </c>
       <c r="B100" s="0" t="n">
-        <f aca="false">+B97+1</f>
         <v>32</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -13710,11 +13530,9 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <f aca="false">+A100+1</f>
         <v>99</v>
       </c>
       <c r="B101" s="0" t="n">
-        <f aca="false">+B98+1</f>
         <v>32</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -13839,7 +13657,6 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <f aca="false">+A101+1</f>
         <v>100</v>
       </c>
       <c r="G102" s="6"/>
@@ -13857,7 +13674,6 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <f aca="false">+A102+1</f>
         <v>101</v>
       </c>
       <c r="C103" s="16" t="s">
@@ -13878,7 +13694,6 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <f aca="false">+A103+1</f>
         <v>102</v>
       </c>
       <c r="C104" s="0" t="s">
@@ -13902,7 +13717,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13911,17 +13726,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13936,7 +13751,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13945,20 +13760,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="44.2755102040816"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="44.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14030,7 +13845,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/fechasEleccionesMexicoDesde1994.xlsx
+++ b/data/fechasEleccionesMexicoDesde1994.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="199">
   <si>
     <t xml:space="preserve">Ocupantes podran contender en</t>
   </si>
@@ -553,7 +553,7 @@
     <t xml:space="preserve">2sep</t>
   </si>
   <si>
-    <t xml:space="preserve">12mayo2020 reforma const para adoptar reeleccion consecutiva</t>
+    <t xml:space="preserve">12mayo2020 reforma const para adoptar reeleccion consecutiva luego SCJN invalido la reforma 24nov2020</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
@@ -815,14 +815,14 @@
   <dimension ref="A1:BA101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="E95" activeCellId="0" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.47"/>
@@ -13626,8 +13626,8 @@
       <c r="D95" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="6" t="n">
-        <v>2025</v>
+      <c r="E95" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F95" s="6" t="n">
         <v>2</v>
@@ -13735,7 +13735,7 @@
         <v>50</v>
       </c>
       <c r="AO95" s="6" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AP95" s="6" t="n">
         <v>70</v>
@@ -14599,7 +14599,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14633,7 +14633,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="44.28"/>
